--- a/data/report.xlsx
+++ b/data/report.xlsx
@@ -464,12 +464,12 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Event 3</t>
+          <t>Event 2</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>E-3 Entry</t>
+          <t>E-2 Entry</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Registered</t>
+          <t>Not Entered</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Registered</t>
+          <t>Not Entered</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Registered</t>
+          <t>Not Entered</t>
         </is>
       </c>
     </row>

--- a/data/report.xlsx
+++ b/data/report.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,6 +553,41 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>jkdfghkdfjg-5123456789</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jkdfghkdfjg</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>fhsdj@mkglf.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5123456789</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>coding</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Not Entered</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/report.xlsx
+++ b/data/report.xlsx
@@ -539,7 +539,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Not Entered</t>
+          <t>Entered</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Not Entered</t>
+          <t>Entered</t>
         </is>
       </c>
     </row>

--- a/data/report.xlsx
+++ b/data/report.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,27 +479,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fkdjlhgwuihdf-5647893210</t>
+          <t>dummy14-1411111111</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>fkdjlhgwuihdf</t>
+          <t>dummy14</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>sdjhfg@cndj.com</t>
+          <t>dum14@gmail.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5647893210</t>
+          <t>1411111111</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>coding</t>
+          <t>pubg</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -514,22 +514,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jhsdbfjshdfb-2315467890</t>
+          <t>fkdjlhgwuihdf-5647893210</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>jhsdbfjshdfb</t>
+          <t>fkdjlhgwuihdf</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>sdfsdfsdf@gmail.com</t>
+          <t>sdjhfg@cndj.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2315467890</t>
+          <t>5647893210</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -539,17 +539,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Entered</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>coding</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Entered</t>
+          <t>Not Entered</t>
         </is>
       </c>
     </row>
@@ -559,30 +549,75 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>jhsdbfjshdfb-2315467890</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jhsdbfjshdfb</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sdfsdfsdf@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2315467890</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>coding</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Entered</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>coding</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>jkdfghkdfjg-5123456789</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>jkdfghkdfjg</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>fhsdj@mkglf.com</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>5123456789</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>coding</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Not Entered</t>
         </is>

--- a/data/report.xlsx
+++ b/data/report.xlsx
@@ -412,13 +412,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="20.33203125" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="4" max="4"/>
@@ -452,176 +452,6 @@
           <t>Phone no.</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Event 1</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>E-1 Entry</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Event 2</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>E-2 Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>dummy14-1411111111</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>dummy14</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>dum14@gmail.com</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1411111111</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>pubg</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Not Entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>fkdjlhgwuihdf-5647893210</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>fkdjlhgwuihdf</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>sdjhfg@cndj.com</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5647893210</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>coding</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Not Entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>jhsdbfjshdfb-2315467890</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>jhsdbfjshdfb</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>sdfsdfsdf@gmail.com</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2315467890</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>coding</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Entered</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>coding</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>jkdfghkdfjg-5123456789</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>jkdfghkdfjg</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>fhsdj@mkglf.com</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5123456789</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>coding</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Not Entered</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
